--- a/amazon dashboard.xlsx
+++ b/amazon dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pradh\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB89280-5A77-47E1-86A1-1817297C7A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37B8071B-55B3-430F-A995-079E7C978C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{0EB22507-75FB-44F5-83ED-0AB17818802D}"/>
   </bookViews>
@@ -1589,7 +1589,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -1600,7 +1600,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2889,7 +2888,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2937,7 +2936,7 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2993,7 +2992,10 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -15774,15 +15776,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>505407</xdr:colOff>
+      <xdr:colOff>497386</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>31102</xdr:rowOff>
+      <xdr:rowOff>95270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>303244</xdr:colOff>
+      <xdr:colOff>295223</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>31102</xdr:rowOff>
+      <xdr:rowOff>95270</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16167,16 +16169,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>505146</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>312641</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>154113</xdr:rowOff>
+      <xdr:rowOff>170155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>436652</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>112295</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>111305</xdr:rowOff>
+      <xdr:rowOff>127347</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Sheet4!$B$5">
       <xdr:nvSpPr>
@@ -16191,8 +16193,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4152472" y="513709"/>
-          <a:ext cx="1147281" cy="316787"/>
+          <a:off x="4579841" y="539123"/>
+          <a:ext cx="1018854" cy="326161"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16361,16 +16363,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>590764</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>53353</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>154112</xdr:rowOff>
+      <xdr:rowOff>178175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>522269</xdr:colOff>
+      <xdr:colOff>594458</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>119866</xdr:rowOff>
+      <xdr:rowOff>143929</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Sheet4!$B$4">
       <xdr:nvSpPr>
@@ -16385,8 +16387,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6669640" y="513708"/>
-          <a:ext cx="1147281" cy="325349"/>
+          <a:off x="6758953" y="547143"/>
+          <a:ext cx="1150705" cy="334723"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16664,15 +16666,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>162673</xdr:colOff>
+      <xdr:colOff>178715</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>119865</xdr:rowOff>
+      <xdr:rowOff>176012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>231168</xdr:colOff>
+      <xdr:colOff>247210</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>42809</xdr:rowOff>
+      <xdr:rowOff>98956</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Sheet4!$B$3">
       <xdr:nvSpPr>
@@ -16687,8 +16689,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9280988" y="479461"/>
-          <a:ext cx="1284270" cy="282539"/>
+          <a:off x="9322715" y="544980"/>
+          <a:ext cx="1287695" cy="291913"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16750,15 +16752,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>70591</xdr:colOff>
+      <xdr:colOff>86634</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>99597</xdr:rowOff>
+      <xdr:rowOff>155745</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>257553</xdr:colOff>
+      <xdr:colOff>273596</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>24287</xdr:rowOff>
+      <xdr:rowOff>80435</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Sheet4!$B$6">
       <xdr:nvSpPr>
@@ -16773,8 +16775,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12200387" y="472821"/>
-          <a:ext cx="793452" cy="297915"/>
+          <a:off x="12278634" y="524713"/>
+          <a:ext cx="796562" cy="293659"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16869,6 +16871,206 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>537410</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>144379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>402557</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>65673</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E7550AF-E695-88D7-B91B-52D3CC9924A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4195010" y="513347"/>
+          <a:ext cx="474747" cy="474747"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>232612</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>160422</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>56830</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>40787</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{832282FF-8750-A5D2-21F9-BC9063683E55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6328612" y="529390"/>
+          <a:ext cx="433818" cy="433818"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>219431</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>96252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>142371</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>116304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44AEA7A8-3868-946F-48B5-02B39F44C390}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11801831" y="465220"/>
+          <a:ext cx="532540" cy="573505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>394202</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>135187</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>218420</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15552</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2634F448-7420-41F3-89E3-F1BCA0677BAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8928602" y="504155"/>
+          <a:ext cx="433818" cy="433818"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -30663,28 +30865,28 @@
       <c r="B3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3">
         <v>4800</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3">
         <v>78000</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3">
         <v>78000</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3">
         <v>65</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3">
         <v>4</v>
       </c>
     </row>
@@ -30692,28 +30894,28 @@
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4">
         <v>3600</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4">
         <v>78000</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4">
         <v>78000</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4">
         <v>65</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4">
         <v>1</v>
       </c>
     </row>
@@ -30721,13 +30923,13 @@
       <c r="B5" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>3600</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5">
         <v>5</v>
       </c>
     </row>
@@ -30735,13 +30937,13 @@
       <c r="B6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>1200</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6">
         <v>3</v>
       </c>
     </row>
@@ -30749,13 +30951,13 @@
       <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>2400</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7">
         <v>1</v>
       </c>
     </row>
@@ -30763,13 +30965,13 @@
       <c r="B8" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>3600</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8">
         <v>1</v>
       </c>
     </row>
@@ -30777,13 +30979,13 @@
       <c r="B9" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>1200</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9">
         <v>2</v>
       </c>
     </row>
@@ -30791,13 +30993,13 @@
       <c r="B10" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>3600</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10">
         <v>2</v>
       </c>
     </row>
@@ -30805,13 +31007,13 @@
       <c r="B11" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11">
         <v>4800</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11">
         <v>1</v>
       </c>
     </row>
@@ -30819,13 +31021,13 @@
       <c r="B12" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12">
         <v>4800</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12">
         <v>4</v>
       </c>
     </row>
@@ -30833,13 +31035,13 @@
       <c r="B13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13">
         <v>1200</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13">
         <v>24</v>
       </c>
     </row>
@@ -30847,7 +31049,7 @@
       <c r="B14" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14">
         <v>1200</v>
       </c>
     </row>
@@ -30855,7 +31057,7 @@
       <c r="B15" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15">
         <v>2400</v>
       </c>
     </row>
@@ -30863,7 +31065,7 @@
       <c r="B16" s="4">
         <v>45690</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16">
         <v>3600</v>
       </c>
     </row>
@@ -30871,7 +31073,7 @@
       <c r="B17" s="4">
         <v>45749</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17">
         <v>6000</v>
       </c>
     </row>
@@ -30879,7 +31081,7 @@
       <c r="B18" s="4">
         <v>45750</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18">
         <v>3600</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -30893,13 +31095,13 @@
       <c r="B19" s="4">
         <v>45779</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19">
         <v>4800</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19">
         <v>12000</v>
       </c>
     </row>
@@ -30907,13 +31109,13 @@
       <c r="B20" s="4">
         <v>45810</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20">
         <v>2400</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20">
         <v>6000</v>
       </c>
     </row>
@@ -30921,13 +31123,13 @@
       <c r="B21" s="4">
         <v>45811</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21">
         <v>8400</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21">
         <v>15600</v>
       </c>
     </row>
@@ -30935,13 +31137,13 @@
       <c r="B22" s="4">
         <v>45841</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22">
         <v>4800</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22">
         <v>13200</v>
       </c>
     </row>
@@ -30949,13 +31151,13 @@
       <c r="B23" s="4">
         <v>45902</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23">
         <v>2400</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23">
         <v>4800</v>
       </c>
     </row>
@@ -30963,13 +31165,13 @@
       <c r="B24" s="4">
         <v>45963</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24">
         <v>2400</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24">
         <v>3600</v>
       </c>
     </row>
@@ -30977,13 +31179,13 @@
       <c r="B25" s="4">
         <v>45964</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25">
         <v>1200</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25">
         <v>4800</v>
       </c>
     </row>
@@ -30991,13 +31193,13 @@
       <c r="B26" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26">
         <v>78000</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26">
         <v>4800</v>
       </c>
     </row>
@@ -31005,7 +31207,7 @@
       <c r="H27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27">
         <v>2400</v>
       </c>
     </row>
@@ -31013,7 +31215,7 @@
       <c r="H28" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28">
         <v>10800</v>
       </c>
     </row>
@@ -31021,7 +31223,7 @@
       <c r="H29" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29">
         <v>78000</v>
       </c>
     </row>
@@ -31106,8 +31308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599A2C5C-99D2-4A77-ADE0-CD1F67E371E4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="95" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
